--- a/documentacao/planilha-UAT/Planilha UAT.xlsx
+++ b/documentacao/planilha-UAT/Planilha UAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Ferraz\OneDrive\Área de Trabalho\Bandtec\3 Semestre\PI\Resenha\documentacao\planilha-UAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F07ACBE-AB8E-4C90-924E-00A3098E21D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A88578C-6738-4D9B-88E5-67A3334CC7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="503" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="503" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenário - Formulario e Login" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="262">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -111,15 +111,6 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>BUG. Não apareceu a mensagem. O sistema deixou consultar.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>\\logserver\Demanda\A-416\LogId1.LOG</t>
-  </si>
-  <si>
     <t>Id2</t>
   </si>
   <si>
@@ -129,45 +120,21 @@
     <t>Id4</t>
   </si>
   <si>
-    <t>\\logserver\Demanda\A-416\LogId3.LOG</t>
-  </si>
-  <si>
     <t>Id5</t>
   </si>
   <si>
-    <t>DEFEITO.Ok com ressalvas.</t>
-  </si>
-  <si>
-    <t>\\logserver\Demanda\A-416\LogId4.LOG</t>
-  </si>
-  <si>
     <t>Id6</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>\\logserver\Demanda\A-416\LogId5.LOG</t>
-  </si>
-  <si>
     <t>Id7</t>
   </si>
   <si>
-    <t>BUG. Não apareceram os dados do endereço.</t>
-  </si>
-  <si>
-    <t>\\logserver\Demanda\A-416\LogId6.LOG</t>
-  </si>
-  <si>
     <t>Id8</t>
   </si>
   <si>
-    <t>\\logserver\Demanda\A-416\TelaId7</t>
-  </si>
-  <si>
-    <t>\\logserver\Demanda\A-416\LogId7.LOG</t>
-  </si>
-  <si>
     <t>Tester:</t>
   </si>
   <si>
@@ -210,9 +177,6 @@
     <t>campo invalido e com input vermelho</t>
   </si>
   <si>
-    <t xml:space="preserve"> o erro apareceu. e o sistema não deixou validar.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Teste de formulario do cadastro: nome aceita igual ou somente abaixo de 50 letras </t>
   </si>
   <si>
@@ -225,9 +189,6 @@
     <t>campo devera ser barrado</t>
   </si>
   <si>
-    <t xml:space="preserve"> o campo barrou. e o sistema não deixou ultrapassar.</t>
-  </si>
-  <si>
     <t>Sobrenome com no minino 3 letras</t>
   </si>
   <si>
@@ -309,9 +270,6 @@
     <t>Id17</t>
   </si>
   <si>
-    <t>Id18</t>
-  </si>
-  <si>
     <t>Id19</t>
   </si>
   <si>
@@ -369,9 +327,6 @@
     <t>Id39</t>
   </si>
   <si>
-    <t>Id40</t>
-  </si>
-  <si>
     <t>Teste Formulario/ Nome</t>
   </si>
   <si>
@@ -405,12 +360,6 @@
     <t>Teste de formulario do cadastro: Confirmar senha aceita igual ou somente acima de 6 caracteres</t>
   </si>
   <si>
-    <t>Confirmar senha com menos de 6 caracteres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste de formulario do cadastro: Confirmar senha não aceita menos que 6 caracteres </t>
-  </si>
-  <si>
     <t>Teste Formulario/ CPF</t>
   </si>
   <si>
@@ -594,9 +543,6 @@
     <t xml:space="preserve">Teste menu lateral: Verificar se o botão sair esta funcionando corretamente </t>
   </si>
   <si>
-    <t>Botão sair sai da aplicação e vai para o site institucional</t>
-  </si>
-  <si>
     <t>Teste Aplicação Menu Lateral / Botão inicio</t>
   </si>
   <si>
@@ -627,12 +573,6 @@
     <t>Gabriel Ferraz</t>
   </si>
   <si>
-    <t>Verificar se o Botão escolher quadra esportivas não esta funcionando</t>
-  </si>
-  <si>
-    <t>Se não aparecer as quadras esportivas assim que clica no botão de quadras o teste esta invalido</t>
-  </si>
-  <si>
     <t>Verificar se o Botão escolher horario das quadras esta funcionando</t>
   </si>
   <si>
@@ -642,15 +582,6 @@
     <t>Aparecer os horarios assim que clica no botão de horarios, botão validado com sucesso</t>
   </si>
   <si>
-    <t>Verificar se o Botão escolher horario das quadras não esta funcionando</t>
-  </si>
-  <si>
-    <t>Teste aplicação inicio: Verificar se o botão escolher horario não aperece as opções de horarios disponiveis</t>
-  </si>
-  <si>
-    <t>Se não aparecer os horarios assim que clica no botão de horarios, o botão esta com erro na aplicação</t>
-  </si>
-  <si>
     <t>Teste Aplicação Agendar Horario</t>
   </si>
   <si>
@@ -868,6 +799,18 @@
   </si>
   <si>
     <t>Teste aplicação Cadastrar Quadras: Verificar se o botão Cadastrar não esta cadastrando os dados</t>
+  </si>
+  <si>
+    <t>E-mail tem que ter caracteres depois do @</t>
+  </si>
+  <si>
+    <t>Teste de formulario do cadastro: E-mail tem que ter caracteres dps do @</t>
+  </si>
+  <si>
+    <t>campo invalido e com input do erro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botão sair sai da aplicação e vai para o Login do Usuario </t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1091,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1256,25 +1199,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="13" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1298,11 +1222,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1411,6 +1344,2045 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>367394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2145523</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1279072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA3D4C4-42B6-426F-A341-320233D87866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144251" y="5687787"/>
+          <a:ext cx="2118308" cy="911678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1864178</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33573</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA670B57-715E-4BCE-9994-AAE538CA794A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="3428999"/>
+          <a:ext cx="1551214" cy="1924967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1840590</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{283848C7-E094-4630-B399-45F086A42043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430001" y="22465393"/>
+          <a:ext cx="1527625" cy="1918607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299357</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1772479</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1877786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F5950A-BA67-46B7-9906-538B0454906E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11416393" y="9184823"/>
+          <a:ext cx="1473122" cy="1823356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1748507</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1891392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9295FDCB-FD6D-47CC-B1F7-FE9EE0D81890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="11089821"/>
+          <a:ext cx="1435543" cy="1836964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>353784</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1768927</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1808481</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9DD5C4-4472-4562-ADFF-224489FF833D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11470820" y="20614821"/>
+          <a:ext cx="1415143" cy="1754053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1810537</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1864177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagem 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44C6DF8D-B969-4C07-85AA-F23DB58726EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="26370643"/>
+          <a:ext cx="1402323" cy="1768927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1755321</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1863929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCF6859-C8B0-4BC0-AC78-64AFE6586AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430001" y="7279821"/>
+          <a:ext cx="1442356" cy="1809501"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>44850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1767968</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1864178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{413B0140-2CD5-46C1-A8B7-0570CE3A67A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11402787" y="12985243"/>
+          <a:ext cx="1482217" cy="1819328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312966</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1796144</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1862935</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagem 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A6F30B-2AF4-409B-AEA8-F817AADA9F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430002" y="14886215"/>
+          <a:ext cx="1483178" cy="1822113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1741714</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1857176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB2B809-62FE-4307-99D4-E68348F64CD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11402787" y="18709822"/>
+          <a:ext cx="1455963" cy="1802747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1827424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagem 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD96AA9-437E-4BDE-8DA2-14C6E4B052C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11498036" y="16804822"/>
+          <a:ext cx="1428750" cy="1772995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1750226</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1768930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagem 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D734127A-6CAC-4C23-9D88-2DC61C189DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11470821" y="24397609"/>
+          <a:ext cx="1396441" cy="1741714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1891393</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1847281</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1877786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagem 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A065C50-E542-422E-9A25-EFD6688941AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430001" y="28166786"/>
+          <a:ext cx="1534316" cy="1891393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1823356</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1870982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagem 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518C32A6-0210-4CAE-B531-440A44DD4CBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11498035" y="30153428"/>
+          <a:ext cx="1442357" cy="1802947"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1823358</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagem 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4DDA70-6851-4521-B67A-3B0FC4DDCD6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11416394" y="33895393"/>
+          <a:ext cx="1524000" cy="1909187"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1768929</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1833823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagem 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFDE0F1-3C79-4F8E-81CF-2FEC512FAD55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11457215" y="35854821"/>
+          <a:ext cx="1428750" cy="1779395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1771650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1863759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagem 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC51B577-1048-4EFA-8CDF-A0E251CF333B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11459936" y="32074757"/>
+          <a:ext cx="1428750" cy="1779395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>356507</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1785257</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1822937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Imagem 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F22FA2-14F9-45CD-98E5-150FFD517F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11473543" y="37748935"/>
+          <a:ext cx="1428750" cy="1779395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>318408</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1747158</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1866480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagem 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5C064DD-E30C-4DFC-80F3-266B1637239A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11435444" y="47317478"/>
+          <a:ext cx="1428750" cy="1779395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71331</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1782535</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1845129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagem 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC24928-5C32-4C84-911D-C5A65357C4A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="49206724"/>
+          <a:ext cx="1469571" cy="1773798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1787549</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1823357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagem 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{965E45FC-1235-42EA-9020-E47723F6DC55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11470822" y="51067607"/>
+          <a:ext cx="1433763" cy="1796143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1801156</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1836964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagem 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73F70B1-CF68-4163-958E-7EE6F2C160EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11484429" y="52986214"/>
+          <a:ext cx="1433763" cy="1796143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>408215</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1836965</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1847431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagem 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F526BAD-9AF0-4F42-BB85-A64DC1C653D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525251" y="54918429"/>
+          <a:ext cx="1428750" cy="1779395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1782535</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1841711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Imagem 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CADB731-5B46-4D10-8785-2AC0C9215B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11498036" y="56837037"/>
+          <a:ext cx="1401535" cy="1760067"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1850572</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1804249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagem 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC2A20A-B159-42C6-A3AB-61D1FD2F1FFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239501" y="60715071"/>
+          <a:ext cx="1728107" cy="1654571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87072</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1891392</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1483180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagem 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA5F6A6-D88D-4935-B772-E5F7A6B225FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11204108" y="58796465"/>
+          <a:ext cx="1804320" cy="1347108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>103400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>234043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1907720</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1581151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagem 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EC9BA3-54E1-475D-B7D1-4853B31A10D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11220436" y="62704436"/>
+          <a:ext cx="1804320" cy="1347108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166008</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>138792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1894115</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1793363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagem 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C051E20E-6B37-43BC-8DE1-BCCA6A58E1EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11283044" y="64514185"/>
+          <a:ext cx="1728107" cy="1654571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160550</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>250372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1964870</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>1597480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagem 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A90D6D-6011-4D64-8F35-9DAE55E5C9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277586" y="66530765"/>
+          <a:ext cx="1804320" cy="1347108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1903266</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>1873058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagem 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5A4AD0-FB42-41AB-9022-408E8538217E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11212286" y="68321464"/>
+          <a:ext cx="1808016" cy="1736987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76119</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>340177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1945823</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1524000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagem 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F87BAFF-D47D-49A1-A745-BCCCAF85C8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11193155" y="70430570"/>
+          <a:ext cx="1869704" cy="1183823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>451756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1948544</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1635579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagem 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305932BB-7A47-427F-BC3A-536297BE7FF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11195876" y="72447149"/>
+          <a:ext cx="1869704" cy="1183823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2025730</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1805023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Imagem 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC66D368-09E7-45C9-B3CD-E4CB458119AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="75873429"/>
+          <a:ext cx="1808016" cy="1736987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108776</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>236763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1978480</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1420586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Imagem 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4794CAD2-272F-4935-B97C-E4D472E66FC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11225812" y="74137156"/>
+          <a:ext cx="1869704" cy="1183823"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1864177</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1812765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDA5D5E-E293-402D-9DBD-8D34A59809D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="39637608"/>
+          <a:ext cx="1551213" cy="1785550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1850570</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1840245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagem 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5280424-3346-462D-9FFC-F007C2DF802E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11470821" y="43515643"/>
+          <a:ext cx="1496785" cy="1744995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>329292</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1826077</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1842967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagem 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90E127B-1327-4D48-AC17-95DD27F94029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11446328" y="41613365"/>
+          <a:ext cx="1496785" cy="1744995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>302078</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1798863</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1788538</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Imagem 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9235EC4-2835-4C05-AEBD-DB8B2BBDA4A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11419114" y="45368936"/>
+          <a:ext cx="1496785" cy="1744995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>342414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1973036</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1551214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1802B743-DB56-4740-9A94-F92127AF3B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9742715" y="4356521"/>
+          <a:ext cx="1836964" cy="1208800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>307893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1442708</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E0E6F6-D6E5-47FA-9CF5-EFD59097586B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="6227000"/>
+          <a:ext cx="1945822" cy="1134815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99223</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>299355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2019687</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1360714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4055B504-914A-4C4F-93D7-2059DC3F10D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705866" y="8123462"/>
+          <a:ext cx="1920464" cy="1061359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>326572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1948524</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1496786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA66519E-8BC9-442F-99A8-F4783650B5C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9674678" y="10055679"/>
+          <a:ext cx="1880489" cy="1170214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>110220</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>299355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1967168</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1537606</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E28A1DBB-F528-4B86-B3DA-98B6D9F11A8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9716863" y="11933462"/>
+          <a:ext cx="1856948" cy="1238251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>119875</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1990389</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1578429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86EAEB4-831E-4DE4-971A-1D2E71C66347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10393268" y="4177392"/>
+          <a:ext cx="1870514" cy="1415144"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>136074</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1741715</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1728106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732F2D59-F5C7-40BE-BF11-FF6223151709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10409467" y="5987143"/>
+          <a:ext cx="1605641" cy="1660070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1700,10 +3672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15"/>
@@ -1745,17 +3717,17 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="43"/>
+      <c r="B3" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="40"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="7">
-        <v>44516</v>
+        <v>44527</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1774,10 +3746,10 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="10"/>
     </row>
     <row r="10" spans="1:10">
@@ -1841,97 +3813,83 @@
       <c r="S17" s="24"/>
       <c r="T17" s="24"/>
     </row>
-    <row r="18" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="18" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
     </row>
-    <row r="19" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="19" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>30</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
     </row>
-    <row r="20" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="20" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H20" s="17"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
       <c r="Q20" s="24"/>
@@ -1939,59 +3897,53 @@
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
     </row>
-    <row r="21" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="21" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>29</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="22"/>
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
     </row>
-    <row r="22" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="22" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="20"/>
@@ -2001,159 +3953,137 @@
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
     </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="23" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H23" s="17"/>
-      <c r="I23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>34</v>
-      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="23"/>
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
       <c r="S23" s="24"/>
       <c r="T23" s="24"/>
     </row>
-    <row r="24" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="24" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="23"/>
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="25" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>40</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
       <c r="S25" s="24"/>
       <c r="T25" s="24"/>
     </row>
-    <row r="26" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="26" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>65</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>43</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="23"/>
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
     </row>
-    <row r="27" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="27" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H27" s="17"/>
       <c r="I27" s="20"/>
@@ -2163,59 +4093,53 @@
       <c r="S27" s="24"/>
       <c r="T27" s="24"/>
     </row>
-    <row r="28" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="28" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>59</v>
+        <v>260</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>46</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
     </row>
-    <row r="29" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="29" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="23"/>
@@ -2225,25 +4149,25 @@
       <c r="S29" s="24"/>
       <c r="T29" s="24"/>
     </row>
-    <row r="30" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="30" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="23"/>
@@ -2253,25 +4177,25 @@
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
     </row>
-    <row r="31" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="31" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>85</v>
+        <v>102</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="23"/>
@@ -2281,25 +4205,25 @@
       <c r="S31" s="24"/>
       <c r="T31" s="24"/>
     </row>
-    <row r="32" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="32" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="23"/>
@@ -2309,25 +4233,25 @@
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
     </row>
-    <row r="33" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="33" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="23"/>
@@ -2337,25 +4261,25 @@
       <c r="S33" s="24"/>
       <c r="T33" s="24"/>
     </row>
-    <row r="34" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="34" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="23"/>
@@ -2365,25 +4289,25 @@
       <c r="S34" s="24"/>
       <c r="T34" s="24"/>
     </row>
-    <row r="35" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="35" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="23"/>
@@ -2393,25 +4317,25 @@
       <c r="S35" s="24"/>
       <c r="T35" s="24"/>
     </row>
-    <row r="36" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="36" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="23"/>
@@ -2421,25 +4345,25 @@
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
     </row>
-    <row r="37" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="37" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H37" s="17"/>
       <c r="I37" s="23"/>
@@ -2449,25 +4373,25 @@
       <c r="S37" s="24"/>
       <c r="T37" s="24"/>
     </row>
-    <row r="38" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="38" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="23"/>
@@ -2477,25 +4401,25 @@
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
     </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="39" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H39" s="17"/>
       <c r="I39" s="23"/>
@@ -2505,25 +4429,25 @@
       <c r="S39" s="24"/>
       <c r="T39" s="24"/>
     </row>
-    <row r="40" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="40" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="23"/>
@@ -2533,25 +4457,25 @@
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
     </row>
-    <row r="41" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="41" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H41" s="17"/>
       <c r="I41" s="23"/>
@@ -2561,25 +4485,25 @@
       <c r="S41" s="24"/>
       <c r="T41" s="24"/>
     </row>
-    <row r="42" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="42" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="23"/>
@@ -2589,25 +4513,25 @@
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
     </row>
-    <row r="43" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="43" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A43" s="13" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H43" s="17"/>
       <c r="I43" s="23"/>
@@ -2617,25 +4541,25 @@
       <c r="S43" s="24"/>
       <c r="T43" s="24"/>
     </row>
-    <row r="44" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="44" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="23"/>
@@ -2645,25 +4569,25 @@
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
     </row>
-    <row r="45" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="45" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H45" s="17"/>
       <c r="I45" s="23"/>
@@ -2673,25 +4597,25 @@
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
     </row>
-    <row r="46" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="46" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="23"/>
@@ -2701,45 +4625,53 @@
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
     </row>
-    <row r="47" spans="1:20" s="1" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A47" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="32"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-    </row>
-    <row r="48" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="47" spans="1:20" s="36" customFormat="1" ht="150" customHeight="1">
+      <c r="A47" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+    </row>
+    <row r="48" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="23"/>
@@ -2749,25 +4681,25 @@
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
     </row>
-    <row r="49" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="49" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H49" s="17"/>
       <c r="I49" s="23"/>
@@ -2777,25 +4709,25 @@
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
     </row>
-    <row r="50" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="50" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="23"/>
@@ -2805,25 +4737,25 @@
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
     </row>
-    <row r="51" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="51" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A51" s="13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H51" s="17"/>
       <c r="I51" s="23"/>
@@ -2833,25 +4765,25 @@
       <c r="S51" s="24"/>
       <c r="T51" s="24"/>
     </row>
-    <row r="52" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="52" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="23"/>
@@ -2861,25 +4793,25 @@
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
     </row>
-    <row r="53" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="53" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="23"/>
@@ -2889,25 +4821,25 @@
       <c r="S53" s="24"/>
       <c r="T53" s="24"/>
     </row>
-    <row r="54" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="54" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="23"/>
@@ -2917,25 +4849,25 @@
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
     </row>
-    <row r="55" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="55" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A55" s="13" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H55" s="17"/>
       <c r="I55" s="23"/>
@@ -2945,24 +4877,26 @@
       <c r="S55" s="24"/>
       <c r="T55" s="24"/>
     </row>
-    <row r="56" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
+    <row r="56" spans="1:20" s="1" customFormat="1" ht="150" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="F56" s="18"/>
-      <c r="G56" s="17"/>
+      <c r="G56" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="H56" s="17"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
@@ -2971,46 +4905,20 @@
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
     </row>
-    <row r="57" spans="1:20" s="1" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A57" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
+    <row r="62" spans="1:20">
+      <c r="A62" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="63" spans="1:20" ht="30">
       <c r="A63" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="30">
-      <c r="A64" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="13">
-        <v>44340</v>
+        <v>38</v>
+      </c>
+      <c r="B63" s="38">
+        <v>44528</v>
       </c>
     </row>
   </sheetData>
@@ -3019,22 +4927,13 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J28" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="J23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J24" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="J25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="J19" r:id="rId8" xr:uid="{A14669F0-6BBD-4B1B-89DE-A0DB75BC1B6F}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0" footer="9.8611111111111094E-2"/>
-  <pageSetup fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <pageSetup fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3042,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F39B05-91A4-4107-8476-B280BE6FC6B0}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3075,11 +4974,11 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="5" t="s">
@@ -3105,10 +5004,10 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="28"/>
     </row>
     <row r="10" spans="1:10">
@@ -3168,160 +5067,140 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="75.75" customHeight="1">
+    <row r="18" spans="1:10" ht="150" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>190</v>
+      <c r="B18" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" ht="150" customHeight="1">
+      <c r="A19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>191</v>
+      <c r="B19" s="29" t="s">
+        <v>173</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="26"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="150" customHeight="1">
+      <c r="A20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>192</v>
+      <c r="B20" s="29" t="s">
+        <v>174</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>28</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H20" s="17"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" ht="75.75" customHeight="1">
+    <row r="21" spans="1:10" ht="150" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>193</v>
+        <v>30</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>175</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="75.75" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="150" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>194</v>
+        <v>31</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>176</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="20"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="28" spans="1:10" ht="30">
+    <row r="28" spans="1:10">
       <c r="A28" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30">
       <c r="A29" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="13">
-        <v>44340</v>
+        <v>38</v>
+      </c>
+      <c r="B29" s="38">
+        <v>44528</v>
       </c>
     </row>
   </sheetData>
@@ -3329,20 +5208,17 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{6C77BB31-B012-45BF-AF65-A9329B283E02}"/>
-    <hyperlink ref="J19" r:id="rId2" xr:uid="{4B5CAB8B-440C-4C18-A77F-6A982064CE6A}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C66147-E3C3-40FB-9090-A63EBAC4DF40}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3386,11 +5262,11 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -3458,10 +5334,10 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="28"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -3610,873 +5486,205 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:10" ht="150" customHeight="1">
+      <c r="A18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>195</v>
+      <c r="B18" s="29" t="s">
+        <v>177</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" ht="150" customHeight="1">
+      <c r="A19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>195</v>
+      <c r="B19" s="29" t="s">
+        <v>177</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A23" s="34" t="s">
+      <c r="H19" s="17"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="15">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="15">
+      <c r="A25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="15">
+      <c r="A26" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A27" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="23"/>
-    </row>
-    <row r="28" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A28" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A29" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A30" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A31" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-    </row>
-    <row r="32" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A32" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A33" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A34" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="17"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A35" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A36" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A37" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A38" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-    </row>
-    <row r="39" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A39" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-    </row>
-    <row r="40" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A40" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-    </row>
-    <row r="41" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A41" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-    </row>
-    <row r="42" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A42" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-    </row>
-    <row r="43" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A43" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A44" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-    </row>
-    <row r="45" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A45" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-    </row>
-    <row r="46" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A46" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-    </row>
-    <row r="47" spans="1:10" s="40" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A47" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-    </row>
-    <row r="48" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A48" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-    </row>
-    <row r="49" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A49" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-    </row>
-    <row r="50" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A50" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-    </row>
-    <row r="51" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A51" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-    </row>
-    <row r="52" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A52" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-    </row>
-    <row r="53" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A53" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="17"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-    </row>
-    <row r="54" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A54" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-    </row>
-    <row r="55" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A55" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-    </row>
-    <row r="56" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A56" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-    </row>
-    <row r="57" spans="1:10" ht="75.75" customHeight="1">
-      <c r="A57" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-    </row>
-    <row r="58" spans="1:10" ht="15">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" ht="15">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" ht="15">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" ht="15">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" ht="15">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" ht="30">
-      <c r="A63" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" ht="15">
-      <c r="A64" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="13">
-        <v>44340</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" ht="15">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" ht="15">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" ht="15">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" ht="15">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
+      <c r="B26" s="38">
+        <v>44528</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="15">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="15">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4484,17 +5692,8 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{9DABC889-4A20-43F4-B6DD-CB4EE7B01958}"/>
-    <hyperlink ref="J28" r:id="rId2" xr:uid="{8A49FBEF-5866-4520-B318-5F21777BEA31}"/>
-    <hyperlink ref="I28" r:id="rId3" xr:uid="{8A490F7F-E542-4D56-A128-31B8E80BA0CA}"/>
-    <hyperlink ref="J23" r:id="rId4" xr:uid="{921F38B1-8369-4F96-AE03-A064A6BEF46E}"/>
-    <hyperlink ref="J24" r:id="rId5" xr:uid="{31F1D017-2575-47A5-A6F3-9A732A537CEF}"/>
-    <hyperlink ref="J25" r:id="rId6" xr:uid="{E902BC48-17FC-4B3A-AE57-0B83CEDE42D6}"/>
-    <hyperlink ref="J26" r:id="rId7" xr:uid="{5BB6D761-19A5-419A-9F2E-E45EC162F1BA}"/>
-    <hyperlink ref="J19" r:id="rId8" xr:uid="{B0B4FDA6-C12C-4FC9-87D9-13CD438B4AAA}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4502,8 +5701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C949B7-1B9A-4675-A2BC-C93D260409E8}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4547,11 +5746,11 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -4619,10 +5818,10 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="28"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -4771,137 +5970,117 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="90" customHeight="1">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:10" ht="150" customHeight="1">
+      <c r="A18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>208</v>
+      <c r="B18" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" ht="150" customHeight="1">
+      <c r="A19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="90" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>208</v>
+      <c r="B19" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="150" customHeight="1">
+      <c r="A20" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="90" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>208</v>
+      <c r="B20" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="H20" s="17"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" ht="90" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>208</v>
+    <row r="21" spans="1:10" ht="150" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="90" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>208</v>
+      <c r="H21" s="26"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="150" customHeight="1">
+      <c r="A22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
@@ -4911,139 +6090,117 @@
       <c r="I22" s="20"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="90" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>208</v>
+    <row r="23" spans="1:10" ht="150" customHeight="1">
+      <c r="A23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="17"/>
-      <c r="I23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="23" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" ht="150" customHeight="1">
+      <c r="A24" s="29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="90" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>208</v>
+      <c r="B24" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="90" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>208</v>
+      <c r="H24" s="17"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" ht="150" customHeight="1">
+      <c r="A25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="90" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>208</v>
+      <c r="H25" s="17"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" ht="150" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>185</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="90" customHeight="1">
-      <c r="A27" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="34" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" ht="150" customHeight="1">
+      <c r="A27" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>231</v>
-      </c>
       <c r="D27" s="25" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="17" t="s">
@@ -5115,10 +6272,10 @@
     </row>
     <row r="33" spans="1:10" ht="30">
       <c r="A33" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5131,7 +6288,7 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B34" s="13">
         <v>44340</v>
@@ -5210,14 +6367,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{3420CE0E-BEFD-457D-9E35-773ADB0C9AB4}"/>
-    <hyperlink ref="J23" r:id="rId2" xr:uid="{0B745609-8704-4241-BDC1-5FEBD07200E9}"/>
-    <hyperlink ref="J24" r:id="rId3" xr:uid="{BB955BA0-BB29-4ACA-B1B4-A2B9B9D17D00}"/>
-    <hyperlink ref="J25" r:id="rId4" xr:uid="{191E78B5-6D65-4981-A6F7-06F10ECCEA1E}"/>
-    <hyperlink ref="J26" r:id="rId5" xr:uid="{A8C51E11-9D9C-40ED-BFC7-E572217FD80D}"/>
-    <hyperlink ref="J19" r:id="rId6" xr:uid="{F9EB2F0E-1E9C-4C27-A081-D76F3C27CB22}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5226,8 +6375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C092A707-8036-42B7-8218-95FCEBCDFD96}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:E28"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5271,11 +6420,11 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -5343,11 +6492,11 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
@@ -5495,137 +6644,117 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="90" customHeight="1">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:10" ht="150" customHeight="1">
+      <c r="A18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>233</v>
+      <c r="B18" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" ht="150" customHeight="1">
+      <c r="A19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="90" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>233</v>
+      <c r="B19" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="150" customHeight="1">
+      <c r="A20" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="90" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>233</v>
+      <c r="B20" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="H20" s="17"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" ht="90" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>233</v>
+    <row r="21" spans="1:10" ht="150" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="90" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>233</v>
+      <c r="H21" s="26"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="150" customHeight="1">
+      <c r="A22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
@@ -5635,139 +6764,117 @@
       <c r="I22" s="20"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="90" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>233</v>
+    <row r="23" spans="1:10" ht="150" customHeight="1">
+      <c r="A23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="17"/>
-      <c r="I23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="23" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" ht="150" customHeight="1">
+      <c r="A24" s="29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="90" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>233</v>
+      <c r="B24" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="90" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>233</v>
+      <c r="H24" s="17"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" ht="150" customHeight="1">
+      <c r="A25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="90" customHeight="1">
-      <c r="A26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>233</v>
+      <c r="H25" s="17"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="1:10" ht="150" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="90" customHeight="1">
-      <c r="A27" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="34" t="s">
+      <c r="H26" s="17"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" ht="150" customHeight="1">
+      <c r="A27" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>256</v>
-      </c>
       <c r="E27" s="25" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="17" t="s">
@@ -5777,21 +6884,21 @@
       <c r="I27" s="20"/>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="1:10" ht="90" customHeight="1">
-      <c r="A28" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>233</v>
+    <row r="28" spans="1:10" ht="150" customHeight="1">
+      <c r="A28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="17" t="s">
@@ -5849,13 +6956,11 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="30">
+    <row r="33" spans="1:10" ht="15">
       <c r="A33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>48</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B33" s="13"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -5867,7 +6972,7 @@
     </row>
     <row r="34" spans="1:10" ht="15">
       <c r="A34" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B34" s="13">
         <v>44340</v>
@@ -5946,14 +7051,6 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{F7471FDC-F768-4577-BEEC-ADF80A0CFF74}"/>
-    <hyperlink ref="J23" r:id="rId2" xr:uid="{FF896BE8-0F33-4566-B0EC-7D5F0C24C6F4}"/>
-    <hyperlink ref="J24" r:id="rId3" xr:uid="{8408E199-151C-477A-86F6-BD9B5BFEB9D5}"/>
-    <hyperlink ref="J25" r:id="rId4" xr:uid="{C4E81FFF-7B0A-4127-A098-58420EA50369}"/>
-    <hyperlink ref="J26" r:id="rId5" xr:uid="{14645FEA-0A3E-4130-9B3F-3C2B945D3B0B}"/>
-    <hyperlink ref="J19" r:id="rId6" xr:uid="{6F96321F-E8B6-4AF7-816D-387938B5CB9C}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -5962,8 +7059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4710999F-3331-44C6-9799-EC0AD1A09B7C}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6007,11 +7104,11 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
@@ -6079,11 +7176,11 @@
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
@@ -6231,137 +7328,117 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="95.1" customHeight="1">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:10" ht="150" customHeight="1">
+      <c r="A18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>261</v>
+      <c r="B18" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="17"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="1:10" ht="150" customHeight="1">
+      <c r="A19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="95.1" customHeight="1">
-      <c r="A19" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>261</v>
+      <c r="B19" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="20" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="150" customHeight="1">
+      <c r="A20" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="116.25" customHeight="1">
-      <c r="A20" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>261</v>
+      <c r="B20" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="H20" s="17"/>
       <c r="I20" s="20"/>
       <c r="J20" s="21"/>
     </row>
-    <row r="21" spans="1:10" ht="95.1" customHeight="1">
-      <c r="A21" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>261</v>
+    <row r="21" spans="1:10" ht="150" customHeight="1">
+      <c r="A21" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="95.1" customHeight="1">
-      <c r="A22" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>261</v>
+      <c r="H21" s="26"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="150" customHeight="1">
+      <c r="A22" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
@@ -6371,93 +7448,77 @@
       <c r="I22" s="20"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" ht="95.1" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>261</v>
+    <row r="23" spans="1:10" ht="150" customHeight="1">
+      <c r="A23" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="17"/>
-      <c r="I23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="23" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="1:10" ht="150" customHeight="1">
+      <c r="A24" s="29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="95.1" customHeight="1">
-      <c r="A24" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>261</v>
+      <c r="B24" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="95.1" customHeight="1">
-      <c r="A25" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>261</v>
+      <c r="H24" s="17"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="1:10" ht="150" customHeight="1">
+      <c r="A25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>238</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>40</v>
-      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="2"/>
@@ -6509,10 +7570,10 @@
     </row>
     <row r="30" spans="1:10" ht="30">
       <c r="A30" s="13" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -6525,7 +7586,7 @@
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B31" s="13">
         <v>44340</v>
@@ -6605,13 +7666,6 @@
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="J18" r:id="rId1" xr:uid="{20B11417-CEE1-4815-91B1-D761BFC44873}"/>
-    <hyperlink ref="J23" r:id="rId2" xr:uid="{671FAD47-1759-48AE-9F75-02F535F2E89D}"/>
-    <hyperlink ref="J24" r:id="rId3" xr:uid="{6F2AEFE0-21FF-4C88-B05F-1BEBE3B6ADA0}"/>
-    <hyperlink ref="J25" r:id="rId4" xr:uid="{8001CA2C-D4AB-4F88-9A5C-A6A29D514F0F}"/>
-    <hyperlink ref="J19" r:id="rId5" xr:uid="{95B82F94-0E53-473B-A887-8C8C22FABA32}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>